--- a/public/files/teacher.xlsx
+++ b/public/files/teacher.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10320" tabRatio="500"/>
+    <workbookView windowWidth="25600" windowHeight="9640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="student.generate" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Nik</t>
   </si>
   <si>
+    <t>Rfid</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -35,6 +38,9 @@
     <t>Nomor Telepon</t>
   </si>
   <si>
+    <t>161178195212</t>
+  </si>
+  <si>
     <t>Intisher</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
     <t>081234567890</t>
   </si>
   <si>
+    <t>249138123108</t>
+  </si>
+  <si>
     <t>Aysha Ferdoas</t>
   </si>
   <si>
@@ -60,6 +69,9 @@
   </si>
   <si>
     <t>089876543210</t>
+  </si>
+  <si>
+    <t>183524189201</t>
   </si>
   <si>
     <t>billo khan</t>
@@ -79,9 +91,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -104,13 +116,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,23 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,107 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +281,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,29 +475,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +505,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -516,17 +531,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,155 +564,149 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,6 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1022,27 +1035,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.0892857142857" customWidth="1"/>
-    <col min="2" max="2" width="26.8125" customWidth="1"/>
+    <col min="2" max="2" width="20.9732142857143" customWidth="1"/>
     <col min="3" max="3" width="17.6428571428571" customWidth="1"/>
     <col min="4" max="4" width="15.8392857142857" customWidth="1"/>
     <col min="5" max="5" width="14.7142857142857"/>
     <col min="6" max="6" width="26.3928571428571" customWidth="1"/>
+    <col min="7" max="7" width="16.5178571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:6">
+    <row r="1" ht="13.2" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1057,65 +1071,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="13.2" spans="1:6">
+    <row r="2" ht="13.2" spans="1:7">
       <c r="A2">
         <v>1234567890</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="13.2" spans="1:6">
+    <row r="3" ht="13.2" spans="1:7">
       <c r="A3">
         <v>9876543210</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:6">
+    <row r="4" ht="13.2" spans="1:7">
       <c r="A4">
         <v>3456789012</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
